--- a/data_documentation/DDIs_List.xlsx
+++ b/data_documentation/DDIs_List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\nhddi\lareich\Descriptive_DDI\GitHub_Repository\current\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27FBE066-9542-4650-BBC3-2EC738A9114E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E05955C-A9CF-437C-8193-3EB66F25B258}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" firstSheet="93" activeTab="98" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OVERVIEW" sheetId="1" r:id="rId1"/>
@@ -3720,7 +3720,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">This Excel file lists orally administered drugs included in each potential drug interaction (DDI). Click a hyperlink below to view the drug list for a specific DDI.
+      <t xml:space="preserve">This Excel file lists orally administered drugs included in each potential drug-drug interaction (DDI). Click a hyperlink below to view the drug list for a specific DDI.
 Drugs are listed by their generic names and Lexicomp-identified salt forms. We included only orally administered medications available in the United States from 2018 to 2020, where Part D dispensings were observed among residents. Medication use episodes were generated based on generic drug names, regardless of salt form.
 Each DDI is made up of drug pairs, or "DDI components." We used a naming convention to identify each DDI component. You can find these DDI component names on each sheet.
 For example, Anrys1 is "digoxin + amiodarone." Digoxin is one component, and amiodarone is the other component of the DDI. We identified digoxin using the name anrys1-6a in the code, since it's the first component in the following DDIs: Anrys1, Anrys2, Anrys3, Anrys4, Anrys5, and Anrys6.
@@ -3740,7 +3740,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">DDI, drug interaction; NSAID, nonsteroidal anti-inflammatory drug; P-gp, P-glycoprotein; CYP, cytochrome P450; ACEI, angiotensin-converting enzyme inhibitor; ARB, angiotensin receptor blocker; SSRI, selective serotonin reuptake inhibitor; SNRI, serotonin and norepinephrine reuptake inhibitor; MAO monoamine oxidase; RAS, renin-angiotensin system; CNS, central nervous system; ARNI, angiotensin receptor-neprilysin inhibitor.
+      <t xml:space="preserve">DDI, drug-drug interaction; NSAID, nonsteroidal anti-inflammatory drug; P-gp, P-glycoprotein; CYP, cytochrome P450; ACEI, angiotensin-converting enzyme inhibitor; ARB, angiotensin receptor blocker; SSRI, selective serotonin reuptake inhibitor; SNRI, serotonin and norepinephrine reuptake inhibitor; MAO monoamine oxidase; RAS, renin-angiotensin system; CNS, central nervous system; ARNI, angiotensin receptor-neprilysin inhibitor.
 </t>
     </r>
     <r>
@@ -3792,7 +3792,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Potential clinical outcomes adapted from the referenced consensus list.</t>
+      <t xml:space="preserve"> Potential clinical outcomes were adapted from the referenced consensus list.</t>
     </r>
   </si>
 </sst>
@@ -3800,7 +3800,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3849,13 +3849,6 @@
       <vertAlign val="superscript"/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3914,6 +3907,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3922,15 +3924,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6030,8 +6023,8 @@
   </sheetPr>
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F101" sqref="F101"/>
+    <sheetView topLeftCell="A100" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101:E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6044,13 +6037,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="215.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>1116</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
       <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
@@ -7835,13 +7828,13 @@
       </c>
     </row>
     <row r="101" spans="1:5" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="6" t="s">
+      <c r="A101" s="9" t="s">
         <v>1117</v>
       </c>
-      <c r="B101" s="6"/>
-      <c r="C101" s="6"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="6"/>
+      <c r="B101" s="9"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9280,10 +9273,10 @@
       <c r="C1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="6" t="s">
         <v>1000</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="5" t="s">
         <v>1001</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -11876,10 +11869,10 @@
       <c r="C1" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="5" t="s">
         <v>999</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="7" t="s">
         <v>1002</v>
       </c>
       <c r="F1" s="4" t="s">
@@ -14391,14 +14384,14 @@
       </c>
     </row>
     <row r="200" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="7" t="s">
+      <c r="A200" s="10" t="s">
         <v>714</v>
       </c>
-      <c r="B200" s="7"/>
-      <c r="C200" s="7"/>
-      <c r="D200" s="7"/>
-      <c r="E200" s="7"/>
-      <c r="F200" s="7"/>
+      <c r="B200" s="10"/>
+      <c r="C200" s="10"/>
+      <c r="D200" s="10"/>
+      <c r="E200" s="10"/>
+      <c r="F200" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -15034,7 +15027,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12C80002-F3C4-4207-8816-88188AB90BB7}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -15060,10 +15053,10 @@
       <c r="C1" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="5" t="s">
         <v>999</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="7" t="s">
         <v>1003</v>
       </c>
       <c r="F1" s="4" t="s">
@@ -17349,10 +17342,10 @@
       <c r="C1" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="5" t="s">
         <v>999</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="7" t="s">
         <v>1004</v>
       </c>
       <c r="F1" s="4" t="s">
@@ -19466,10 +19459,10 @@
       <c r="C1" t="s">
         <v>200</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="5" t="s">
         <v>999</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="5" t="s">
         <v>998</v>
       </c>
       <c r="F1" t="s">
@@ -20757,7 +20750,7 @@
       <c r="C1" t="s">
         <v>200</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="5" t="s">
         <v>999</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -26661,15 +26654,15 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="10" t="s">
         <v>963</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -26935,7 +26928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256A158E-5C7F-4F65-86A1-70E2C45AE9A2}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>

--- a/data_documentation/DDIs_List.xlsx
+++ b/data_documentation/DDIs_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\nhddi\lareich\Descriptive_DDI\GitHub_Repository\current\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344CD62F-46EE-4BEA-8054-CA53533F9D51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE302BFC-1A08-4452-90B4-AEA7BED7A4F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3592,6 +3592,47 @@
 NAME: beers12b</t>
   </si>
   <si>
+    <t>Anticoagulants (i.e., warfarin) + direct oral anticoagulants (apixaban, dabigatran, edoxaban, or rivaroxaban)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OVERVIEW: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">This Excel file lists orally administered drugs included in each potential drug-drug interaction (DDI). Click a hyperlink below to view the drug list for a specific DDI.
+Drugs are listed by their generic names and Lexicomp-identified salt forms. We included orally administered medications available in the United States from 2018 to 2020, where Part D dispensings were observed among residents. Medication use episodes were generated based on generic drug names, regardless of salt form.
+Each DDI is made up of drug pairs, or "DDI components." We used a naming convention to identify each DDI component. You can find these DDI component names on each sheet.
+For example, Anrys1 is "digoxin + amiodarone." Digoxin is one component, and amiodarone is the other component of the DDI. We identified digoxin using the name anrys1-6a in the code, since it's the first component (a) in the following DDIs: Anrys1, Anrys2, Anrys3, Anrys4, Anrys5, and Anrys6.
+We identifed amiodarone using the name anrys1x10x28x33b, since it's the second component (b) in the following DDIs: Anrys1, Anrys10, Anrys28, and Anrys33.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Oral anticoagulant (i.e., vitamin K antagonist or factor Xa inhibitor or direct thrombin inhibitor) + an oral NSAID</t>
+  </si>
+  <si>
+    <t>oral anticoagulant (i.e., vitamin K antagonist or factor Xa inhibitor or direct thrombin inhibitor)</t>
+  </si>
+  <si>
+    <t>Sedation-related adverse events, i.e., cognitive impairment, respiratory depression, death</t>
+  </si>
+  <si>
+    <t>Increased risk of cardiovascular adverse events, i.e., congestive heart failure, severe hypotension, exacerbation of angina, heart block, sinus arrest, ventricular asystole</t>
+  </si>
+  <si>
+    <t>Ototoxicity, i.e., increased  risk of tinnitus, reversible, irreversible hearing impairment, deafness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central and peripheral anticholinergic adverse effects, i.e., delirium, cognitive decline, urinary retention, xerostomia  </t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Abbreviations: </t>
     </r>
@@ -3635,7 +3676,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Consensus lists are labeled as Anrys (Anrys et al, 2021), Beers (2023 Beers Criteria), and Capiau (Capiau et al, 2023).
+      <t xml:space="preserve">Consensus lists are labeled as Anrys (Anrys et al, 2021), Beers (2023 AGS Beers Criteria(R)), and Capiau (Capiau et al, 2023).
 </t>
     </r>
     <r>
@@ -3657,47 +3698,6 @@
       </rPr>
       <t xml:space="preserve"> Potential clinical outcomes were adapted from the referenced consensus list.</t>
     </r>
-  </si>
-  <si>
-    <t>Anticoagulants (i.e., warfarin) + direct oral anticoagulants (apixaban, dabigatran, edoxaban, or rivaroxaban)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">OVERVIEW: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">This Excel file lists orally administered drugs included in each potential drug-drug interaction (DDI). Click a hyperlink below to view the drug list for a specific DDI.
-Drugs are listed by their generic names and Lexicomp-identified salt forms. We included orally administered medications available in the United States from 2018 to 2020, where Part D dispensings were observed among residents. Medication use episodes were generated based on generic drug names, regardless of salt form.
-Each DDI is made up of drug pairs, or "DDI components." We used a naming convention to identify each DDI component. You can find these DDI component names on each sheet.
-For example, Anrys1 is "digoxin + amiodarone." Digoxin is one component, and amiodarone is the other component of the DDI. We identified digoxin using the name anrys1-6a in the code, since it's the first component (a) in the following DDIs: Anrys1, Anrys2, Anrys3, Anrys4, Anrys5, and Anrys6.
-We identifed amiodarone using the name anrys1x10x28x33b, since it's the second component (b) in the following DDIs: Anrys1, Anrys10, Anrys28, and Anrys33.
-</t>
-    </r>
-  </si>
-  <si>
-    <t>Oral anticoagulant (i.e., vitamin K antagonist or factor Xa inhibitor or direct thrombin inhibitor) + an oral NSAID</t>
-  </si>
-  <si>
-    <t>oral anticoagulant (i.e., vitamin K antagonist or factor Xa inhibitor or direct thrombin inhibitor)</t>
-  </si>
-  <si>
-    <t>Sedation-related adverse events, i.e., cognitive impairment, respiratory depression, death</t>
-  </si>
-  <si>
-    <t>Increased risk of cardiovascular adverse events, i.e., congestive heart failure, severe hypotension, exacerbation of angina, heart block, sinus arrest, ventricular asystole</t>
-  </si>
-  <si>
-    <t>Ototoxicity, i.e., increased  risk of tinnitus, reversible, irreversible hearing impairment, deafness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Central and peripheral anticholinergic adverse effects, i.e., delirium, cognitive decline, urinary retention, xerostomia  </t>
   </si>
 </sst>
 </file>
@@ -5817,8 +5817,8 @@
   </sheetPr>
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101:E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5832,7 +5832,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="215.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -6045,7 +6045,7 @@
         <v>200</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>939</v>
@@ -6426,7 +6426,7 @@
         <v>126</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E34" s="2" t="str">
         <f>HYPERLINK("#'Anrys32'!A1", "SHEET")</f>
@@ -6480,7 +6480,7 @@
         <v>129</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E37" s="2" t="str">
         <f>HYPERLINK("#'Anrys35'!A1", "SHEET")</f>
@@ -6876,7 +6876,7 @@
         <v>152</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E59" s="2" t="str">
         <f>HYPERLINK("#'Anrys57'!A1", "SHEET")</f>
@@ -7053,7 +7053,7 @@
         <v>201</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>939</v>
@@ -7452,7 +7452,7 @@
         <v>228</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="E91" s="2" t="str">
         <f>HYPERLINK("#'Beers3'!A1", "SHEET")</f>
@@ -7623,7 +7623,7 @@
     </row>
     <row r="101" spans="1:5" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
-        <v>1079</v>
+        <v>1087</v>
       </c>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
@@ -7848,10 +7848,10 @@
         <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>1082</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>1083</v>
       </c>
       <c r="D2" t="s">
         <v>271</v>
